--- a/init-data/hzero-file/hzero_platform/hzero-platform-lov.xlsx
+++ b/init-data/hzero-file/hzero_platform/hzero-platform-lov.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="490">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-11-17</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,7 +2031,10 @@
     <t>description:en_US</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>parent_lov_code</t>
@@ -2067,6 +2070,9 @@
     <t>public_flag</t>
   </si>
   <si>
+    <t>decrypt_field</t>
+  </si>
+  <si>
     <t>hpfm_lov-8</t>
   </si>
   <si>
@@ -2079,6 +2085,9 @@
     <t>存储配置目录权限</t>
   </si>
   <si>
+    <t>Storage Configuration Directory Permissions</t>
+  </si>
+  <si>
     <t>存储配置目录权限值集(父值集为服务供应商)</t>
   </si>
   <si>
@@ -2100,6 +2109,9 @@
     <t>文件分类</t>
   </si>
   <si>
+    <t>File Classification</t>
+  </si>
+  <si>
     <t>hpfm_lov-10</t>
   </si>
   <si>
@@ -2121,6 +2133,9 @@
     <t>文件编辑类型</t>
   </si>
   <si>
+    <t>File Editing Type</t>
+  </si>
+  <si>
     <t>hpfm_lov-12</t>
   </si>
   <si>
@@ -2130,6 +2145,9 @@
     <t>文件格式</t>
   </si>
   <si>
+    <t>File Format</t>
+  </si>
+  <si>
     <t>hpfm_lov-13</t>
   </si>
   <si>
@@ -2151,6 +2169,9 @@
     <t>文件名前缀策略</t>
   </si>
   <si>
+    <t>File Name Prefix Strategy</t>
+  </si>
+  <si>
     <t>hpfm_lov-15</t>
   </si>
   <si>
@@ -2160,6 +2181,9 @@
     <t>服务器上传类型</t>
   </si>
   <si>
+    <t>Server Upload Type</t>
+  </si>
+  <si>
     <t>hpfm_lov-16</t>
   </si>
   <si>
@@ -2175,7 +2199,7 @@
     <t>服务器上传配置</t>
   </si>
   <si>
-    <t>服务器配置</t>
+    <t>Server Upload Configuration</t>
   </si>
   <si>
     <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
@@ -2210,6 +2234,9 @@
     <t>服务器上传配置(租户级)</t>
   </si>
   <si>
+    <t>Server Upload Configuration (Tenant Level)</t>
+  </si>
+  <si>
     <t>&lt;bind name="lang" value="@io.choerodon.mybatis.helper.LanguageHelper@language()"/&gt;
 SELECT
 	hsc.config_id,
@@ -2248,6 +2275,9 @@
     <t>存储大小限制单位</t>
   </si>
   <si>
+    <t>Storage Size Limit Unit</t>
+  </si>
+  <si>
     <t>hpfm_lov-20</t>
   </si>
   <si>
@@ -2257,6 +2287,9 @@
     <t>水印类型</t>
   </si>
   <si>
+    <t>Watermark Type</t>
+  </si>
+  <si>
     <t>LOV独立值集表</t>
   </si>
   <si>
@@ -2305,6 +2338,9 @@
     <t>默认</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -2314,6 +2350,9 @@
     <t>私有</t>
   </si>
   <si>
+    <t>Private</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -2323,6 +2362,9 @@
     <t>公共可读</t>
   </si>
   <si>
+    <t>Publicly Readable</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -2332,6 +2374,9 @@
     <t>公共读写</t>
   </si>
   <si>
+    <t>Public Read And Write</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -2353,6 +2398,9 @@
     <t>无</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
@@ -2365,6 +2413,9 @@
     <t>只读</t>
   </si>
   <si>
+    <t>Read Only</t>
+  </si>
+  <si>
     <t>90</t>
   </si>
   <si>
@@ -2374,6 +2425,9 @@
     <t>只写</t>
   </si>
   <si>
+    <t>Just Write</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -2383,6 +2437,9 @@
     <t>可读写</t>
   </si>
   <si>
+    <t>Can Read And Write</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
@@ -2506,30 +2563,45 @@
     <t>文件</t>
   </si>
   <si>
+    <t>File</t>
+  </si>
+  <si>
     <t>audio</t>
   </si>
   <si>
     <t>音频</t>
   </si>
   <si>
+    <t>Audio</t>
+  </si>
+  <si>
     <t>video</t>
   </si>
   <si>
     <t>视频</t>
   </si>
   <si>
+    <t>Video</t>
+  </si>
+  <si>
     <t>image</t>
   </si>
   <si>
     <t>图片</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
     <t>文本</t>
   </si>
   <si>
+    <t>Text</t>
+  </si>
+  <si>
     <t>hpfm01/</t>
   </si>
   <si>
@@ -2638,6 +2710,9 @@
     <t>hitf_document_param</t>
   </si>
   <si>
+    <t>Hitf_Document_Param</t>
+  </si>
+  <si>
     <t>接口服务-文件参数</t>
   </si>
   <si>
@@ -2665,15 +2740,30 @@
     <t>hfle_watermark_config</t>
   </si>
   <si>
+    <t>hrpt03/</t>
+  </si>
+  <si>
+    <t>hrpt_ureport_file</t>
+  </si>
+  <si>
     <t>删除</t>
   </si>
   <si>
+    <t>Delete</t>
+  </si>
+  <si>
     <t>格式化</t>
   </si>
   <si>
+    <t>Format</t>
+  </si>
+  <si>
     <t>新增</t>
   </si>
   <si>
+    <t>Create</t>
+  </si>
+  <si>
     <t>ai</t>
   </si>
   <si>
@@ -2965,6 +3055,9 @@
     <t>目录</t>
   </si>
   <si>
+    <t>Table Of Contents</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -2974,12 +3067,18 @@
     <t>服务器</t>
   </si>
   <si>
+    <t>Server</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>集群</t>
   </si>
   <si>
+    <t>Cluster</t>
+  </si>
+  <si>
     <t>阿里云</t>
   </si>
   <si>
@@ -3031,12 +3130,21 @@
     <t>ceph</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>UNUSE</t>
   </si>
   <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>七牛云</t>
+  </si>
+  <si>
+    <t>Seven Cattle Cloud</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
@@ -3049,24 +3157,36 @@
     <t>单一文字</t>
   </si>
   <si>
+    <t>Single Text</t>
+  </si>
+  <si>
     <t>IMAGE</t>
   </si>
   <si>
     <t>单一图片</t>
   </si>
   <si>
+    <t>Single Picture</t>
+  </si>
+  <si>
     <t>TILE_TEXT</t>
   </si>
   <si>
     <t>平铺文字</t>
   </si>
   <si>
+    <t>Tile Text</t>
+  </si>
+  <si>
     <t>TILE_IMAGE</t>
   </si>
   <si>
     <t>平铺图片</t>
   </si>
   <si>
+    <t>Tile Picture</t>
+  </si>
+  <si>
     <t>值集查询视图头表</t>
   </si>
   <si>
@@ -3109,7 +3229,7 @@
     <t>children_field_name</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header-171</t>
+    <t>hpfm_lov_view_header-175</t>
   </si>
   <si>
     <t>HFLE.LOV.SERVER_CONFIG</t>
@@ -3118,18 +3238,21 @@
     <t>服务器上传编码lov(平台级)</t>
   </si>
   <si>
-    <t>服务器上传编码lov</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-172</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_header-173</t>
+    <t>Server Upload Code Lov (Platform Level)</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-176</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_header-177</t>
   </si>
   <si>
     <t>服务器上传编码(租户级)</t>
   </si>
   <si>
+    <t>Server Upload Code (Tenant Level)</t>
+  </si>
+  <si>
     <t>值集查询视图行表</t>
   </si>
   <si>
@@ -3142,7 +3265,10 @@
     <t>#view_header_id</t>
   </si>
   <si>
-    <t>tenant_id</t>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>display:zh_CN</t>
@@ -3163,13 +3289,16 @@
     <t>table_field_width</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-176</t>
+    <t>hpfm_lov_view_line-180</t>
   </si>
   <si>
     <t>配置编码</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-177</t>
+    <t>Configuration Code</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-181</t>
   </si>
   <si>
     <t>描述</t>
@@ -3178,31 +3307,40 @@
     <t>description</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-178</t>
+    <t>hpfm_lov_view_line-182</t>
   </si>
   <si>
     <t>所属租户</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>tenantName</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-179</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-180</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-181</t>
+    <t>hpfm_lov_view_line-183</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-184</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-185</t>
   </si>
   <si>
     <t>租户名称</t>
   </si>
   <si>
-    <t>hpfm_lov_view_line-182</t>
-  </si>
-  <si>
-    <t>hpfm_lov_view_line-183</t>
+    <t>Tenant Name</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-186</t>
+  </si>
+  <si>
+    <t>hpfm_lov_view_line-187</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -3210,7 +3348,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="45">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3386,12 +3524,22 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3432,6 +3580,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3602,7 +3755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3696,6 +3849,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4281,7 +4437,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X183"/>
+  <dimension ref="A1:Z187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4352,7 +4508,7 @@
       <c r="M7" t="s" s="42">
         <v>62</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s" s="43">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -4385,430 +4541,475 @@
       <c r="X7" t="s">
         <v>73</v>
       </c>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="P8" t="s">
+        <v>82</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
-      </c>
-      <c r="X8" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="T9" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X10" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
-      </c>
-      <c r="T12" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="P12" t="s">
+        <v>82</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
-      </c>
-      <c r="X12" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="T13" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
-      </c>
-      <c r="X13" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
       </c>
       <c r="U14" t="s">
-        <v>81</v>
-      </c>
-      <c r="X14" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
-      </c>
-      <c r="T15" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
       </c>
       <c r="U15" t="s">
-        <v>81</v>
-      </c>
-      <c r="X15" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" t="s">
-        <v>111</v>
-      </c>
-      <c r="R16" t="s">
-        <v>112</v>
+        <v>82</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>119</v>
       </c>
       <c r="S16" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="U16" t="s">
-        <v>81</v>
-      </c>
-      <c r="W16" t="s">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="V16" t="s">
+        <v>84</v>
       </c>
       <c r="X16" t="s">
-        <v>79</v>
+        <v>121</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
         <v>115</v>
       </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" t="s">
-        <v>117</v>
-      </c>
-      <c r="T17" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>126</v>
       </c>
       <c r="U17" t="s">
-        <v>81</v>
-      </c>
-      <c r="W17" t="s">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="V17" t="s">
+        <v>84</v>
       </c>
       <c r="X17" t="s">
-        <v>79</v>
+        <v>121</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
-      </c>
-      <c r="T18" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
       </c>
       <c r="U18" t="s">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
-      </c>
-      <c r="T19" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
       </c>
       <c r="U19" t="s">
-        <v>81</v>
-      </c>
-      <c r="X19" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
-      </c>
-      <c r="T20" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N20" t="s">
+        <v>82</v>
       </c>
       <c r="U20" t="s">
-        <v>81</v>
-      </c>
-      <c r="X20" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="V20" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -4819,28 +5020,28 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s" s="43">
-        <v>129</v>
-      </c>
-      <c r="E22" t="s" s="44">
-        <v>130</v>
-      </c>
-      <c r="F22" t="s" s="45">
-        <v>131</v>
+        <v>139</v>
+      </c>
+      <c r="D22" t="s" s="44">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s" s="45">
+        <v>141</v>
+      </c>
+      <c r="F22" t="s" s="46">
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" t="s" s="46">
-        <v>133</v>
+        <v>143</v>
+      </c>
+      <c r="H22" t="s" s="47">
+        <v>144</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K22" t="s">
         <v>60</v>
@@ -4848,5063 +5049,5674 @@
       <c r="L22" t="s">
         <v>61</v>
       </c>
-      <c r="M22" t="s" s="47">
+      <c r="M22" t="s" s="48">
         <v>62</v>
       </c>
-      <c r="N22" t="s">
-        <v>136</v>
+      <c r="N22" t="s" s="49">
+        <v>63</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
-      </c>
-      <c r="P22" t="s" s="48">
-        <v>138</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="P22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" t="s" s="50">
+        <v>149</v>
       </c>
       <c r="R22" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="S22" t="s">
-        <v>70</v>
+        <v>151</v>
+      </c>
+      <c r="T22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F23">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="J23" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M23" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="N23" t="s">
+        <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>81</v>
-      </c>
-      <c r="S23" t="s">
-        <v>81</v>
+        <v>156</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F24">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O24" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="N24" t="s">
+        <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>81</v>
-      </c>
-      <c r="S24" t="s">
-        <v>81</v>
+        <v>160</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>84</v>
+      </c>
+      <c r="T24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F25">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" t="s">
-        <v>150</v>
+        <v>82</v>
+      </c>
+      <c r="N25" t="s">
+        <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>81</v>
-      </c>
-      <c r="S25" t="s">
-        <v>81</v>
+        <v>164</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>84</v>
+      </c>
+      <c r="T25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F26">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" t="s">
-        <v>153</v>
+        <v>82</v>
+      </c>
+      <c r="N26" t="s">
+        <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>81</v>
-      </c>
-      <c r="S26" t="s">
-        <v>81</v>
+        <v>168</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>84</v>
+      </c>
+      <c r="T26" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F27">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
-      </c>
-      <c r="O27" t="s">
-        <v>154</v>
+        <v>82</v>
+      </c>
+      <c r="N27" t="s">
+        <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
-      </c>
-      <c r="S27" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>170</v>
+      </c>
+      <c r="T27" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F28">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I28" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
-      </c>
-      <c r="O28" t="s">
-        <v>156</v>
+        <v>82</v>
+      </c>
+      <c r="N28" t="s">
+        <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
-      </c>
-      <c r="S28" t="s">
-        <v>81</v>
+        <v>171</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>170</v>
+      </c>
+      <c r="T28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F29">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29" t="s">
-        <v>157</v>
+        <v>82</v>
+      </c>
+      <c r="N29" t="s">
+        <v>82</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
-      </c>
-      <c r="S29" t="s">
-        <v>81</v>
+        <v>172</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F30">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J30" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s">
-        <v>79</v>
-      </c>
-      <c r="O30" t="s">
-        <v>160</v>
+        <v>82</v>
+      </c>
+      <c r="N30" t="s">
+        <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
-      </c>
-      <c r="S30" t="s">
-        <v>81</v>
+        <v>176</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>177</v>
+      </c>
+      <c r="T30" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F31">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="I31" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M31" t="s">
-        <v>79</v>
-      </c>
-      <c r="O31" t="s">
-        <v>164</v>
+        <v>82</v>
+      </c>
+      <c r="N31" t="s">
+        <v>82</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
-      </c>
-      <c r="S31" t="s">
-        <v>81</v>
+        <v>181</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>177</v>
+      </c>
+      <c r="T31" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F32">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="I32" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J32" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M32" t="s">
-        <v>79</v>
-      </c>
-      <c r="O32" t="s">
-        <v>167</v>
+        <v>82</v>
+      </c>
+      <c r="N32" t="s">
+        <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
-      </c>
-      <c r="S32" t="s">
-        <v>81</v>
+        <v>185</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>177</v>
+      </c>
+      <c r="T32" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F33">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="I33" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J33" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s">
-        <v>79</v>
-      </c>
-      <c r="O33" t="s">
-        <v>170</v>
+        <v>82</v>
+      </c>
+      <c r="N33" t="s">
+        <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
-      </c>
-      <c r="S33" t="s">
-        <v>81</v>
+        <v>189</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>177</v>
+      </c>
+      <c r="T33" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F34">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M34" t="s">
-        <v>79</v>
-      </c>
-      <c r="O34" t="s">
-        <v>171</v>
+        <v>82</v>
+      </c>
+      <c r="N34" t="s">
+        <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
-      </c>
-      <c r="S34" t="s">
-        <v>81</v>
+        <v>190</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>191</v>
+      </c>
+      <c r="T34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F35">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I35" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J35" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M35" t="s">
-        <v>79</v>
-      </c>
-      <c r="O35" t="s">
-        <v>173</v>
+        <v>82</v>
+      </c>
+      <c r="N35" t="s">
+        <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
-      </c>
-      <c r="S35" t="s">
-        <v>81</v>
+        <v>192</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>191</v>
+      </c>
+      <c r="T35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F36">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I36" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J36" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O36" t="s">
-        <v>174</v>
+        <v>82</v>
+      </c>
+      <c r="N36" t="s">
+        <v>82</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S36" t="s">
-        <v>81</v>
+        <v>193</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>191</v>
+      </c>
+      <c r="T36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F37">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I37" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M37" t="s">
-        <v>79</v>
-      </c>
-      <c r="O37" t="s">
-        <v>175</v>
+        <v>82</v>
+      </c>
+      <c r="N37" t="s">
+        <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
-      </c>
-      <c r="S37" t="s">
-        <v>81</v>
+        <v>194</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>191</v>
+      </c>
+      <c r="T37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F38">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I38" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="J38" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M38" t="s">
-        <v>79</v>
-      </c>
-      <c r="O38" t="s">
-        <v>176</v>
+        <v>82</v>
+      </c>
+      <c r="N38" t="s">
+        <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
-      </c>
-      <c r="S38" t="s">
-        <v>81</v>
+        <v>195</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>196</v>
+      </c>
+      <c r="T38" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F39">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J39" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M39" t="s">
-        <v>79</v>
-      </c>
-      <c r="O39" t="s">
-        <v>178</v>
+        <v>82</v>
+      </c>
+      <c r="N39" t="s">
+        <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
-      </c>
-      <c r="S39" t="s">
-        <v>81</v>
+        <v>197</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>198</v>
+      </c>
+      <c r="T39" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F40">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I40" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M40" t="s">
-        <v>79</v>
-      </c>
-      <c r="O40" t="s">
-        <v>180</v>
+        <v>82</v>
+      </c>
+      <c r="N40" t="s">
+        <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
-      </c>
-      <c r="S40" t="s">
-        <v>81</v>
+        <v>199</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>200</v>
+      </c>
+      <c r="T40" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F41">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I41" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M41" t="s">
-        <v>79</v>
-      </c>
-      <c r="O41" t="s">
-        <v>182</v>
+        <v>82</v>
+      </c>
+      <c r="N41" t="s">
+        <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
-      </c>
-      <c r="S41" t="s">
-        <v>81</v>
+        <v>201</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>200</v>
+      </c>
+      <c r="T41" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F42">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s">
-        <v>79</v>
-      </c>
-      <c r="O42" t="s">
-        <v>183</v>
+        <v>82</v>
+      </c>
+      <c r="N42" t="s">
+        <v>82</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
-      </c>
-      <c r="S42" t="s">
-        <v>81</v>
+        <v>202</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>200</v>
+      </c>
+      <c r="T42" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F43">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I43" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J43" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M43" t="s">
-        <v>79</v>
-      </c>
-      <c r="O43" t="s">
-        <v>184</v>
+        <v>82</v>
+      </c>
+      <c r="N43" t="s">
+        <v>82</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
-      </c>
-      <c r="S43" t="s">
-        <v>81</v>
+        <v>203</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>204</v>
+      </c>
+      <c r="T43" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F44">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I44" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J44" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M44" t="s">
-        <v>79</v>
-      </c>
-      <c r="O44" t="s">
-        <v>186</v>
+        <v>82</v>
+      </c>
+      <c r="N44" t="s">
+        <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
-      </c>
-      <c r="S44" t="s">
-        <v>81</v>
+        <v>205</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>204</v>
+      </c>
+      <c r="T44" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F45">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I45" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M45" t="s">
-        <v>79</v>
-      </c>
-      <c r="O45" t="s">
-        <v>187</v>
+        <v>82</v>
+      </c>
+      <c r="N45" t="s">
+        <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
-      </c>
-      <c r="S45" t="s">
-        <v>81</v>
+        <v>206</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>204</v>
+      </c>
+      <c r="T45" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F46">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I46" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J46" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M46" t="s">
-        <v>79</v>
-      </c>
-      <c r="O46" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="N46" t="s">
+        <v>82</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
-      </c>
-      <c r="S46" t="s">
-        <v>81</v>
+        <v>207</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>208</v>
+      </c>
+      <c r="T46" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F47">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I47" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M47" t="s">
-        <v>79</v>
-      </c>
-      <c r="O47" t="s">
-        <v>190</v>
+        <v>82</v>
+      </c>
+      <c r="N47" t="s">
+        <v>82</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
-      </c>
-      <c r="S47" t="s">
-        <v>81</v>
+        <v>209</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>208</v>
+      </c>
+      <c r="T47" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F48">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I48" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O48" t="s">
-        <v>191</v>
+        <v>82</v>
+      </c>
+      <c r="N48" t="s">
+        <v>82</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
-      </c>
-      <c r="S48" t="s">
-        <v>81</v>
+        <v>210</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>208</v>
+      </c>
+      <c r="T48" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F49">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="J49" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s">
-        <v>79</v>
-      </c>
-      <c r="O49" t="s">
-        <v>195</v>
+        <v>82</v>
+      </c>
+      <c r="N49" t="s">
+        <v>82</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
-      </c>
-      <c r="S49" t="s">
-        <v>81</v>
+        <v>214</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>215</v>
+      </c>
+      <c r="T49" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F50">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="I50" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="J50" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s">
-        <v>79</v>
-      </c>
-      <c r="O50" t="s">
-        <v>200</v>
+        <v>82</v>
+      </c>
+      <c r="N50" t="s">
+        <v>82</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
-      </c>
-      <c r="S50" t="s">
-        <v>81</v>
+        <v>219</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>215</v>
+      </c>
+      <c r="T50" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F51">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="I51" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J51" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M51" t="s">
-        <v>79</v>
-      </c>
-      <c r="O51" t="s">
-        <v>204</v>
+        <v>82</v>
+      </c>
+      <c r="N51" t="s">
+        <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
-      </c>
-      <c r="S51" t="s">
-        <v>81</v>
+        <v>223</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>215</v>
+      </c>
+      <c r="T51" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F52">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="I52" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s">
-        <v>79</v>
-      </c>
-      <c r="O52" t="s">
-        <v>205</v>
+        <v>82</v>
+      </c>
+      <c r="N52" t="s">
+        <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
-      </c>
-      <c r="S52" t="s">
-        <v>81</v>
+        <v>224</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>225</v>
+      </c>
+      <c r="T52" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F53">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I53" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J53" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M53" t="s">
-        <v>79</v>
-      </c>
-      <c r="O53" t="s">
-        <v>207</v>
+        <v>82</v>
+      </c>
+      <c r="N53" t="s">
+        <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
-      </c>
-      <c r="S53" t="s">
-        <v>81</v>
+        <v>226</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>225</v>
+      </c>
+      <c r="T53" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F54">
         <f>值集数据!$E$8</f>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I54" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J54" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M54" t="s">
-        <v>79</v>
-      </c>
-      <c r="O54" t="s">
-        <v>208</v>
+        <v>82</v>
+      </c>
+      <c r="N54" t="s">
+        <v>82</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
-      </c>
-      <c r="S54" t="s">
-        <v>81</v>
+        <v>227</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>225</v>
+      </c>
+      <c r="T54" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F55">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="I55" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="J55" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s">
-        <v>79</v>
-      </c>
-      <c r="O55" t="s">
-        <v>147</v>
-      </c>
-      <c r="S55" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N55" t="s">
+        <v>82</v>
+      </c>
+      <c r="P55" t="s">
+        <v>160</v>
+      </c>
+      <c r="T55" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F56">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="I56" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J56" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="M56" t="s">
-        <v>79</v>
-      </c>
-      <c r="O56" t="s">
-        <v>150</v>
-      </c>
-      <c r="S56" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N56" t="s">
+        <v>82</v>
+      </c>
+      <c r="P56" t="s">
+        <v>164</v>
+      </c>
+      <c r="T56" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F57">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="I57" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J57" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M57" t="s">
-        <v>79</v>
-      </c>
-      <c r="O57" t="s">
-        <v>153</v>
-      </c>
-      <c r="S57" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="s">
+        <v>168</v>
+      </c>
+      <c r="T57" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F58">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="I58" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="J58" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s">
-        <v>79</v>
-      </c>
-      <c r="O58" t="s">
-        <v>154</v>
-      </c>
-      <c r="S58" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N58" t="s">
+        <v>82</v>
+      </c>
+      <c r="P58" t="s">
+        <v>169</v>
+      </c>
+      <c r="T58" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F59">
         <f>值集数据!$E$9</f>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="J59" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="M59" t="s">
-        <v>79</v>
-      </c>
-      <c r="O59" t="s">
-        <v>156</v>
-      </c>
-      <c r="S59" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N59" t="s">
+        <v>82</v>
+      </c>
+      <c r="P59" t="s">
+        <v>171</v>
+      </c>
+      <c r="T59" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F60">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="I60" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="J60" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M60" t="s">
-        <v>79</v>
-      </c>
-      <c r="O60" t="s">
-        <v>144</v>
-      </c>
-      <c r="S60" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N60" t="s">
+        <v>82</v>
+      </c>
+      <c r="P60" t="s">
+        <v>156</v>
+      </c>
+      <c r="T60" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F61">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="I61" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="J61" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="M61" t="s">
-        <v>79</v>
-      </c>
-      <c r="O61" t="s">
-        <v>147</v>
-      </c>
-      <c r="S61" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N61" t="s">
+        <v>82</v>
+      </c>
+      <c r="P61" t="s">
+        <v>160</v>
+      </c>
+      <c r="T61" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F62">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="I62" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="J62" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="M62" t="s">
-        <v>79</v>
-      </c>
-      <c r="O62" t="s">
-        <v>150</v>
-      </c>
-      <c r="S62" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N62" t="s">
+        <v>82</v>
+      </c>
+      <c r="P62" t="s">
+        <v>164</v>
+      </c>
+      <c r="T62" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F63">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="I63" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J63" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="M63" t="s">
-        <v>79</v>
-      </c>
-      <c r="O63" t="s">
-        <v>153</v>
-      </c>
-      <c r="S63" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N63" t="s">
+        <v>82</v>
+      </c>
+      <c r="P63" t="s">
+        <v>168</v>
+      </c>
+      <c r="T63" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F64">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="I64" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="J64" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="M64" t="s">
-        <v>79</v>
-      </c>
-      <c r="O64" t="s">
-        <v>154</v>
-      </c>
-      <c r="S64" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P64" t="s">
+        <v>169</v>
+      </c>
+      <c r="T64" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F65">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="I65" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="J65" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="M65" t="s">
-        <v>79</v>
-      </c>
-      <c r="O65" t="s">
-        <v>156</v>
-      </c>
-      <c r="S65" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N65" t="s">
+        <v>82</v>
+      </c>
+      <c r="P65" t="s">
+        <v>171</v>
+      </c>
+      <c r="T65" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F66">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="I66" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="J66" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="M66" t="s">
-        <v>79</v>
-      </c>
-      <c r="O66" t="s">
-        <v>157</v>
-      </c>
-      <c r="S66" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P66" t="s">
+        <v>172</v>
+      </c>
+      <c r="T66" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F67">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="I67" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J67" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M67" t="s">
-        <v>79</v>
-      </c>
-      <c r="O67" t="s">
-        <v>160</v>
-      </c>
-      <c r="S67" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P67" t="s">
+        <v>176</v>
+      </c>
+      <c r="T67" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F68">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="I68" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="J68" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="M68" t="s">
-        <v>79</v>
-      </c>
-      <c r="O68" t="s">
-        <v>164</v>
-      </c>
-      <c r="S68" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N68" t="s">
+        <v>82</v>
+      </c>
+      <c r="P68" t="s">
+        <v>181</v>
+      </c>
+      <c r="T68" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F69">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="I69" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J69" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M69" t="s">
-        <v>79</v>
-      </c>
-      <c r="O69" t="s">
-        <v>167</v>
-      </c>
-      <c r="S69" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P69" t="s">
+        <v>185</v>
+      </c>
+      <c r="T69" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F70">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="I70" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="J70" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M70" t="s">
-        <v>79</v>
-      </c>
-      <c r="O70" t="s">
-        <v>170</v>
-      </c>
-      <c r="S70" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N70" t="s">
+        <v>82</v>
+      </c>
+      <c r="P70" t="s">
+        <v>189</v>
+      </c>
+      <c r="T70" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F71">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="I71" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="J71" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M71" t="s">
-        <v>79</v>
-      </c>
-      <c r="O71" t="s">
-        <v>171</v>
-      </c>
-      <c r="S71" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N71" t="s">
+        <v>82</v>
+      </c>
+      <c r="P71" t="s">
+        <v>190</v>
+      </c>
+      <c r="T71" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F72">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="I72" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J72" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M72" t="s">
-        <v>79</v>
-      </c>
-      <c r="O72" t="s">
-        <v>173</v>
-      </c>
-      <c r="S72" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N72" t="s">
+        <v>82</v>
+      </c>
+      <c r="P72" t="s">
+        <v>192</v>
+      </c>
+      <c r="T72" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F73">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="I73" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J73" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M73" t="s">
-        <v>79</v>
-      </c>
-      <c r="O73" t="s">
-        <v>174</v>
-      </c>
-      <c r="S73" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P73" t="s">
+        <v>193</v>
+      </c>
+      <c r="T73" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F74">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G74" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="I74" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="J74" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="M74" t="s">
-        <v>79</v>
-      </c>
-      <c r="O74" t="s">
-        <v>175</v>
-      </c>
-      <c r="S74" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N74" t="s">
+        <v>82</v>
+      </c>
+      <c r="P74" t="s">
+        <v>194</v>
+      </c>
+      <c r="T74" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F75">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G75" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="I75" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="J75" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="M75" t="s">
-        <v>79</v>
-      </c>
-      <c r="O75" t="s">
-        <v>176</v>
-      </c>
-      <c r="S75" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N75" t="s">
+        <v>82</v>
+      </c>
+      <c r="P75" t="s">
+        <v>195</v>
+      </c>
+      <c r="T75" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F76">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G76" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="I76" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="J76" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M76" t="s">
-        <v>79</v>
-      </c>
-      <c r="O76" t="s">
-        <v>178</v>
-      </c>
-      <c r="S76" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N76" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" t="s">
+        <v>197</v>
+      </c>
+      <c r="T76" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F77">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G77" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="I77" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="J77" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="K77" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M77" t="s">
-        <v>79</v>
-      </c>
-      <c r="O77" t="s">
-        <v>180</v>
-      </c>
-      <c r="S77" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N77" t="s">
+        <v>82</v>
+      </c>
+      <c r="P77" t="s">
+        <v>199</v>
+      </c>
+      <c r="T77" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F78">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="I78" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J78" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M78" t="s">
-        <v>79</v>
-      </c>
-      <c r="O78" t="s">
-        <v>182</v>
-      </c>
-      <c r="S78" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N78" t="s">
+        <v>82</v>
+      </c>
+      <c r="P78" t="s">
+        <v>201</v>
+      </c>
+      <c r="T78" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F79">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G79" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="I79" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="J79" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="M79" t="s">
-        <v>79</v>
-      </c>
-      <c r="O79" t="s">
-        <v>183</v>
-      </c>
-      <c r="S79" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N79" t="s">
+        <v>82</v>
+      </c>
+      <c r="P79" t="s">
+        <v>202</v>
+      </c>
+      <c r="T79" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F80">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="I80" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="J80" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="M80" t="s">
-        <v>79</v>
-      </c>
-      <c r="O80" t="s">
-        <v>184</v>
-      </c>
-      <c r="S80" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N80" t="s">
+        <v>82</v>
+      </c>
+      <c r="P80" t="s">
+        <v>203</v>
+      </c>
+      <c r="T80" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F81">
         <f>值集数据!$E$10</f>
       </c>
       <c r="G81" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="I81" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="J81" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="M81" t="s">
-        <v>79</v>
-      </c>
-      <c r="O81" t="s">
-        <v>186</v>
-      </c>
-      <c r="S81" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N81" t="s">
+        <v>82</v>
+      </c>
+      <c r="P81" t="s">
+        <v>205</v>
+      </c>
+      <c r="T81" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F82">
-        <f>值集数据!$E$11</f>
+        <f>值集数据!$E$10</f>
       </c>
       <c r="G82" t="s">
         <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="I82" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="J82" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="M82" t="s">
-        <v>79</v>
-      </c>
-      <c r="O82" t="s">
-        <v>144</v>
-      </c>
-      <c r="S82" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N82" t="s">
+        <v>82</v>
+      </c>
+      <c r="P82" t="s">
+        <v>206</v>
+      </c>
+      <c r="T82" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F83">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G83" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H83" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="I83" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="J83" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M83" t="s">
-        <v>79</v>
-      </c>
-      <c r="O83" t="s">
-        <v>150</v>
-      </c>
-      <c r="S83" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N83" t="s">
+        <v>82</v>
+      </c>
+      <c r="P83" t="s">
+        <v>156</v>
+      </c>
+      <c r="T83" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F84">
         <f>值集数据!$E$11</f>
       </c>
       <c r="G84" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H84" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="I84" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="J84" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="M84" t="s">
-        <v>79</v>
-      </c>
-      <c r="O84" t="s">
-        <v>147</v>
-      </c>
-      <c r="S84" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N84" t="s">
+        <v>82</v>
+      </c>
+      <c r="P84" t="s">
+        <v>164</v>
+      </c>
+      <c r="T84" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F85">
-        <f>值集数据!$E$12</f>
+        <f>值集数据!$E$11</f>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H85" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="I85" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J85" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="M85" t="s">
-        <v>79</v>
-      </c>
-      <c r="O85" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="N85" t="s">
+        <v>82</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
-      </c>
-      <c r="S85" t="s">
-        <v>81</v>
+        <v>160</v>
+      </c>
+      <c r="T85" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F86">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G86" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H86" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="I86" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="J86" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="M86" t="s">
-        <v>79</v>
-      </c>
-      <c r="O86" t="s">
-        <v>150</v>
+        <v>82</v>
+      </c>
+      <c r="N86" t="s">
+        <v>82</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
-      </c>
-      <c r="S86" t="s">
-        <v>81</v>
+        <v>160</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>228</v>
+      </c>
+      <c r="T86" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F87">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G87" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H87" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="I87" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="J87" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M87" t="s">
-        <v>79</v>
-      </c>
-      <c r="O87" t="s">
-        <v>153</v>
+        <v>82</v>
+      </c>
+      <c r="N87" t="s">
+        <v>82</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
-      </c>
-      <c r="S87" t="s">
-        <v>81</v>
+        <v>164</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>228</v>
+      </c>
+      <c r="T87" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F88">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G88" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H88" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="I88" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="J88" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="M88" t="s">
-        <v>79</v>
-      </c>
-      <c r="O88" t="s">
-        <v>154</v>
+        <v>82</v>
+      </c>
+      <c r="N88" t="s">
+        <v>82</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
-      </c>
-      <c r="S88" t="s">
-        <v>81</v>
+        <v>168</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>228</v>
+      </c>
+      <c r="T88" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F89">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G89" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H89" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="I89" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="J89" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="M89" t="s">
-        <v>79</v>
-      </c>
-      <c r="O89" t="s">
-        <v>156</v>
+        <v>82</v>
+      </c>
+      <c r="N89" t="s">
+        <v>82</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
-      </c>
-      <c r="S89" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>228</v>
+      </c>
+      <c r="T89" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F90">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H90" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="I90" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="J90" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M90" t="s">
-        <v>79</v>
-      </c>
-      <c r="O90" t="s">
-        <v>157</v>
+        <v>82</v>
+      </c>
+      <c r="N90" t="s">
+        <v>82</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
-      </c>
-      <c r="S90" t="s">
-        <v>81</v>
+        <v>171</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>228</v>
+      </c>
+      <c r="T90" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F91">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G91" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H91" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="I91" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="J91" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="M91" t="s">
-        <v>79</v>
-      </c>
-      <c r="O91" t="s">
-        <v>160</v>
+        <v>82</v>
+      </c>
+      <c r="N91" t="s">
+        <v>82</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
-      </c>
-      <c r="S91" t="s">
-        <v>81</v>
+        <v>172</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>228</v>
+      </c>
+      <c r="T91" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F92">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G92" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H92" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="I92" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J92" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="M92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O92" t="s">
-        <v>164</v>
+        <v>82</v>
+      </c>
+      <c r="N92" t="s">
+        <v>82</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
-      </c>
-      <c r="S92" t="s">
-        <v>81</v>
+        <v>176</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>228</v>
+      </c>
+      <c r="T92" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F93">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G93" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H93" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="I93" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="J93" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="M93" t="s">
-        <v>79</v>
-      </c>
-      <c r="O93" t="s">
-        <v>171</v>
+        <v>82</v>
+      </c>
+      <c r="N93" t="s">
+        <v>82</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
-      </c>
-      <c r="S93" t="s">
-        <v>81</v>
+        <v>181</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>228</v>
+      </c>
+      <c r="T93" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F94">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G94" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H94" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="I94" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="J94" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="M94" t="s">
-        <v>79</v>
-      </c>
-      <c r="O94" t="s">
-        <v>173</v>
+        <v>82</v>
+      </c>
+      <c r="N94" t="s">
+        <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
-      </c>
-      <c r="S94" t="s">
-        <v>81</v>
+        <v>190</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>228</v>
+      </c>
+      <c r="T94" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F95">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G95" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H95" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="I95" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="J95" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M95" t="s">
-        <v>79</v>
-      </c>
-      <c r="O95" t="s">
-        <v>174</v>
+        <v>82</v>
+      </c>
+      <c r="N95" t="s">
+        <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
-      </c>
-      <c r="S95" t="s">
-        <v>81</v>
+        <v>192</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>228</v>
+      </c>
+      <c r="T95" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F96">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G96" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H96" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="I96" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="J96" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="M96" t="s">
-        <v>79</v>
-      </c>
-      <c r="O96" t="s">
-        <v>175</v>
+        <v>82</v>
+      </c>
+      <c r="N96" t="s">
+        <v>82</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
-      </c>
-      <c r="S96" t="s">
-        <v>81</v>
+        <v>193</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>228</v>
+      </c>
+      <c r="T96" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F97">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G97" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H97" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="I97" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J97" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="M97" t="s">
-        <v>79</v>
-      </c>
-      <c r="O97" t="s">
-        <v>176</v>
+        <v>82</v>
+      </c>
+      <c r="N97" t="s">
+        <v>82</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
-      </c>
-      <c r="S97" t="s">
-        <v>81</v>
+        <v>194</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>228</v>
+      </c>
+      <c r="T97" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F98">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G98" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H98" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="I98" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="J98" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="M98" t="s">
-        <v>79</v>
-      </c>
-      <c r="O98" t="s">
-        <v>178</v>
+        <v>82</v>
+      </c>
+      <c r="N98" t="s">
+        <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>209</v>
-      </c>
-      <c r="S98" t="s">
-        <v>81</v>
+        <v>195</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>228</v>
+      </c>
+      <c r="T98" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F99">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G99" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H99" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="I99" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="J99" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M99" t="s">
-        <v>79</v>
-      </c>
-      <c r="O99" t="s">
-        <v>180</v>
+        <v>82</v>
+      </c>
+      <c r="N99" t="s">
+        <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
-      </c>
-      <c r="S99" t="s">
-        <v>81</v>
+        <v>197</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>228</v>
+      </c>
+      <c r="T99" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F100">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G100" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H100" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="I100" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="J100" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="M100" t="s">
-        <v>79</v>
-      </c>
-      <c r="O100" t="s">
-        <v>182</v>
+        <v>82</v>
+      </c>
+      <c r="N100" t="s">
+        <v>82</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
-      </c>
-      <c r="S100" t="s">
-        <v>81</v>
+        <v>199</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>228</v>
+      </c>
+      <c r="T100" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F101">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G101" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H101" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="I101" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="J101" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M101" t="s">
-        <v>79</v>
-      </c>
-      <c r="O101" t="s">
-        <v>183</v>
+        <v>82</v>
+      </c>
+      <c r="N101" t="s">
+        <v>82</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
-      </c>
-      <c r="S101" t="s">
-        <v>81</v>
+        <v>201</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>228</v>
+      </c>
+      <c r="T101" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F102">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G102" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H102" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="I102" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="J102" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="M102" t="s">
-        <v>79</v>
-      </c>
-      <c r="O102" t="s">
-        <v>184</v>
+        <v>82</v>
+      </c>
+      <c r="N102" t="s">
+        <v>82</v>
       </c>
       <c r="P102" t="s">
-        <v>209</v>
-      </c>
-      <c r="S102" t="s">
-        <v>81</v>
+        <v>202</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>228</v>
+      </c>
+      <c r="T102" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F103">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G103" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H103" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="I103" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="J103" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="M103" t="s">
-        <v>79</v>
-      </c>
-      <c r="O103" t="s">
-        <v>186</v>
+        <v>82</v>
+      </c>
+      <c r="N103" t="s">
+        <v>82</v>
       </c>
       <c r="P103" t="s">
-        <v>211</v>
-      </c>
-      <c r="S103" t="s">
-        <v>81</v>
+        <v>203</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>228</v>
+      </c>
+      <c r="T103" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F104">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G104" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H104" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="I104" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J104" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="M104" t="s">
-        <v>79</v>
-      </c>
-      <c r="O104" t="s">
-        <v>187</v>
+        <v>82</v>
+      </c>
+      <c r="N104" t="s">
+        <v>82</v>
       </c>
       <c r="P104" t="s">
-        <v>211</v>
-      </c>
-      <c r="S104" t="s">
-        <v>81</v>
+        <v>205</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>231</v>
+      </c>
+      <c r="T104" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F105">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G105" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H105" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="I105" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="J105" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="M105" t="s">
-        <v>79</v>
-      </c>
-      <c r="O105" t="s">
-        <v>188</v>
+        <v>82</v>
+      </c>
+      <c r="N105" t="s">
+        <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>211</v>
-      </c>
-      <c r="S105" t="s">
-        <v>81</v>
+        <v>206</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>231</v>
+      </c>
+      <c r="T105" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F106">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G106" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H106" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="I106" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="J106" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="M106" t="s">
-        <v>79</v>
-      </c>
-      <c r="O106" t="s">
-        <v>191</v>
+        <v>82</v>
+      </c>
+      <c r="N106" t="s">
+        <v>82</v>
       </c>
       <c r="P106" t="s">
-        <v>211</v>
-      </c>
-      <c r="S106" t="s">
-        <v>81</v>
+        <v>207</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>231</v>
+      </c>
+      <c r="T106" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F107">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G107" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H107" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="I107" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="J107" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="M107" t="s">
-        <v>79</v>
-      </c>
-      <c r="O107" t="s">
-        <v>195</v>
+        <v>82</v>
+      </c>
+      <c r="N107" t="s">
+        <v>82</v>
       </c>
       <c r="P107" t="s">
-        <v>211</v>
-      </c>
-      <c r="S107" t="s">
-        <v>81</v>
+        <v>210</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>231</v>
+      </c>
+      <c r="T107" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F108">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G108" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H108" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="I108" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="J108" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M108" t="s">
-        <v>79</v>
-      </c>
-      <c r="O108" t="s">
-        <v>200</v>
+        <v>82</v>
+      </c>
+      <c r="N108" t="s">
+        <v>82</v>
       </c>
       <c r="P108" t="s">
-        <v>213</v>
-      </c>
-      <c r="S108" t="s">
-        <v>81</v>
+        <v>214</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>231</v>
+      </c>
+      <c r="T108" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F109">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G109" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H109" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="I109" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="J109" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="M109" t="s">
-        <v>79</v>
-      </c>
-      <c r="O109" t="s">
-        <v>204</v>
+        <v>82</v>
+      </c>
+      <c r="N109" t="s">
+        <v>82</v>
       </c>
       <c r="P109" t="s">
-        <v>213</v>
-      </c>
-      <c r="S109" t="s">
-        <v>81</v>
+        <v>219</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>234</v>
+      </c>
+      <c r="T109" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F110">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G110" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H110" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="I110" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="J110" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="M110" t="s">
-        <v>79</v>
-      </c>
-      <c r="O110" t="s">
-        <v>207</v>
+        <v>82</v>
+      </c>
+      <c r="N110" t="s">
+        <v>82</v>
       </c>
       <c r="P110" t="s">
-        <v>213</v>
-      </c>
-      <c r="S110" t="s">
-        <v>81</v>
+        <v>223</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>234</v>
+      </c>
+      <c r="T110" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F111">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G111" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H111" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="I111" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="J111" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="M111" t="s">
-        <v>79</v>
-      </c>
-      <c r="O111" t="s">
-        <v>205</v>
+        <v>82</v>
+      </c>
+      <c r="N111" t="s">
+        <v>82</v>
       </c>
       <c r="P111" t="s">
-        <v>213</v>
-      </c>
-      <c r="S111" t="s">
-        <v>81</v>
+        <v>226</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>234</v>
+      </c>
+      <c r="T111" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F112">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G112" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H112" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="I112" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="J112" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="M112" t="s">
-        <v>79</v>
-      </c>
-      <c r="O112" t="s">
-        <v>208</v>
+        <v>82</v>
+      </c>
+      <c r="N112" t="s">
+        <v>82</v>
       </c>
       <c r="P112" t="s">
-        <v>213</v>
-      </c>
-      <c r="S112" t="s">
-        <v>81</v>
+        <v>224</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>234</v>
+      </c>
+      <c r="T112" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F113">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G113" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H113" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="I113" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="J113" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="M113" t="s">
-        <v>79</v>
-      </c>
-      <c r="O113" t="s">
-        <v>296</v>
+        <v>82</v>
+      </c>
+      <c r="N113" t="s">
+        <v>82</v>
       </c>
       <c r="P113" t="s">
-        <v>213</v>
-      </c>
-      <c r="S113" t="s">
-        <v>81</v>
+        <v>227</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>234</v>
+      </c>
+      <c r="T113" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F114">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G114" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H114" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="I114" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="J114" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="M114" t="s">
-        <v>79</v>
-      </c>
-      <c r="O114" t="s">
-        <v>298</v>
+        <v>82</v>
+      </c>
+      <c r="N114" t="s">
+        <v>82</v>
       </c>
       <c r="P114" t="s">
-        <v>213</v>
-      </c>
-      <c r="S114" t="s">
-        <v>81</v>
+        <v>326</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>234</v>
+      </c>
+      <c r="T114" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F115">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G115" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H115" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="I115" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="J115" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="M115" t="s">
-        <v>79</v>
-      </c>
-      <c r="O115" t="s">
-        <v>300</v>
+        <v>82</v>
+      </c>
+      <c r="N115" t="s">
+        <v>82</v>
       </c>
       <c r="P115" t="s">
-        <v>213</v>
-      </c>
-      <c r="S115" t="s">
-        <v>81</v>
+        <v>328</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>234</v>
+      </c>
+      <c r="T115" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F116">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G116" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H116" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="I116" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="J116" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="M116" t="s">
-        <v>79</v>
-      </c>
-      <c r="O116" t="s">
-        <v>302</v>
+        <v>82</v>
+      </c>
+      <c r="N116" t="s">
+        <v>82</v>
       </c>
       <c r="P116" t="s">
-        <v>213</v>
-      </c>
-      <c r="S116" t="s">
-        <v>81</v>
+        <v>330</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>234</v>
+      </c>
+      <c r="T116" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F117">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G117" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H117" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="I117" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="J117" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="M117" t="s">
-        <v>79</v>
-      </c>
-      <c r="O117" t="s">
-        <v>304</v>
+        <v>82</v>
+      </c>
+      <c r="N117" t="s">
+        <v>82</v>
       </c>
       <c r="P117" t="s">
-        <v>215</v>
-      </c>
-      <c r="S117" t="s">
-        <v>81</v>
+        <v>332</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>234</v>
+      </c>
+      <c r="T117" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F118">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G118" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H118" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="I118" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="J118" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="M118" t="s">
-        <v>79</v>
-      </c>
-      <c r="O118" t="s">
-        <v>306</v>
+        <v>82</v>
+      </c>
+      <c r="N118" t="s">
+        <v>82</v>
       </c>
       <c r="P118" t="s">
-        <v>215</v>
-      </c>
-      <c r="S118" t="s">
-        <v>81</v>
+        <v>334</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>237</v>
+      </c>
+      <c r="T118" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F119">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G119" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H119" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="I119" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="J119" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="M119" t="s">
-        <v>79</v>
-      </c>
-      <c r="O119" t="s">
-        <v>308</v>
+        <v>82</v>
+      </c>
+      <c r="N119" t="s">
+        <v>82</v>
       </c>
       <c r="P119" t="s">
-        <v>215</v>
-      </c>
-      <c r="S119" t="s">
-        <v>81</v>
+        <v>336</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>237</v>
+      </c>
+      <c r="T119" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F120">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H120" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="I120" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="J120" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="M120" t="s">
-        <v>79</v>
-      </c>
-      <c r="O120" t="s">
-        <v>310</v>
+        <v>82</v>
+      </c>
+      <c r="N120" t="s">
+        <v>82</v>
       </c>
       <c r="P120" t="s">
-        <v>215</v>
-      </c>
-      <c r="S120" t="s">
-        <v>81</v>
+        <v>338</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>237</v>
+      </c>
+      <c r="T120" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F121">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G121" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H121" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="I121" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="J121" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="M121" t="s">
-        <v>79</v>
-      </c>
-      <c r="O121" t="s">
-        <v>312</v>
+        <v>82</v>
+      </c>
+      <c r="N121" t="s">
+        <v>82</v>
       </c>
       <c r="P121" t="s">
-        <v>215</v>
-      </c>
-      <c r="S121" t="s">
-        <v>81</v>
+        <v>340</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>237</v>
+      </c>
+      <c r="T121" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F122">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G122" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H122" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="I122" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="J122" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="M122" t="s">
-        <v>79</v>
-      </c>
-      <c r="O122" t="s">
-        <v>314</v>
+        <v>82</v>
+      </c>
+      <c r="N122" t="s">
+        <v>82</v>
       </c>
       <c r="P122" t="s">
-        <v>215</v>
-      </c>
-      <c r="S122" t="s">
-        <v>81</v>
+        <v>342</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>237</v>
+      </c>
+      <c r="T122" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F123">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G123" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H123" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="I123" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="J123" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="M123" t="s">
-        <v>79</v>
-      </c>
-      <c r="O123" t="s">
-        <v>316</v>
+        <v>82</v>
+      </c>
+      <c r="N123" t="s">
+        <v>82</v>
       </c>
       <c r="P123" t="s">
-        <v>215</v>
-      </c>
-      <c r="S123" t="s">
-        <v>81</v>
+        <v>344</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>237</v>
+      </c>
+      <c r="T123" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F124">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G124" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H124" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="I124" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="J124" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="M124" t="s">
-        <v>79</v>
-      </c>
-      <c r="O124" t="s">
-        <v>318</v>
+        <v>82</v>
+      </c>
+      <c r="N124" t="s">
+        <v>82</v>
       </c>
       <c r="P124" t="s">
-        <v>215</v>
-      </c>
-      <c r="S124" t="s">
-        <v>81</v>
+        <v>346</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>237</v>
+      </c>
+      <c r="T124" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F125">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G125" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H125" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="I125" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="J125" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="M125" t="s">
-        <v>79</v>
-      </c>
-      <c r="O125" t="s">
-        <v>320</v>
+        <v>82</v>
+      </c>
+      <c r="N125" t="s">
+        <v>82</v>
       </c>
       <c r="P125" t="s">
-        <v>215</v>
-      </c>
-      <c r="S125" t="s">
-        <v>81</v>
+        <v>348</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>237</v>
+      </c>
+      <c r="T125" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="126">
       <c r="E126" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F126">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G126" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H126" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="I126" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="J126" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="M126" t="s">
-        <v>79</v>
-      </c>
-      <c r="O126" t="s">
-        <v>322</v>
+        <v>82</v>
+      </c>
+      <c r="N126" t="s">
+        <v>82</v>
       </c>
       <c r="P126" t="s">
-        <v>217</v>
-      </c>
-      <c r="S126" t="s">
-        <v>81</v>
+        <v>350</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>237</v>
+      </c>
+      <c r="T126" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="127">
       <c r="E127" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F127">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G127" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H127" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="I127" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="J127" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="M127" t="s">
-        <v>79</v>
-      </c>
-      <c r="O127" t="s">
-        <v>324</v>
+        <v>82</v>
+      </c>
+      <c r="N127" t="s">
+        <v>82</v>
       </c>
       <c r="P127" t="s">
-        <v>217</v>
-      </c>
-      <c r="S127" t="s">
-        <v>81</v>
+        <v>352</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>240</v>
+      </c>
+      <c r="T127" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="128">
       <c r="E128" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F128">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G128" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H128" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="I128" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="J128" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="M128" t="s">
-        <v>79</v>
-      </c>
-      <c r="O128" t="s">
-        <v>326</v>
+        <v>82</v>
+      </c>
+      <c r="N128" t="s">
+        <v>82</v>
       </c>
       <c r="P128" t="s">
-        <v>217</v>
-      </c>
-      <c r="S128" t="s">
-        <v>81</v>
+        <v>354</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>240</v>
+      </c>
+      <c r="T128" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="129">
       <c r="E129" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F129">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G129" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H129" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="I129" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="J129" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="M129" t="s">
-        <v>79</v>
-      </c>
-      <c r="O129" t="s">
-        <v>328</v>
+        <v>82</v>
+      </c>
+      <c r="N129" t="s">
+        <v>82</v>
       </c>
       <c r="P129" t="s">
-        <v>217</v>
-      </c>
-      <c r="S129" t="s">
-        <v>81</v>
+        <v>356</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>240</v>
+      </c>
+      <c r="T129" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="130">
       <c r="E130" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F130">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G130" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H130" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="I130" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="J130" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="M130" t="s">
-        <v>79</v>
-      </c>
-      <c r="O130" t="s">
-        <v>330</v>
+        <v>82</v>
+      </c>
+      <c r="N130" t="s">
+        <v>82</v>
       </c>
       <c r="P130" t="s">
-        <v>217</v>
-      </c>
-      <c r="S130" t="s">
-        <v>81</v>
+        <v>358</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>240</v>
+      </c>
+      <c r="T130" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="131">
       <c r="E131" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F131">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G131" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H131" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="I131" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="J131" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="M131" t="s">
-        <v>79</v>
-      </c>
-      <c r="O131" t="s">
-        <v>332</v>
+        <v>82</v>
+      </c>
+      <c r="N131" t="s">
+        <v>82</v>
       </c>
       <c r="P131" t="s">
-        <v>217</v>
-      </c>
-      <c r="S131" t="s">
-        <v>81</v>
+        <v>360</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>240</v>
+      </c>
+      <c r="T131" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="132">
       <c r="E132" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F132">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G132" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H132" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="I132" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="J132" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="M132" t="s">
-        <v>79</v>
-      </c>
-      <c r="O132" t="s">
-        <v>334</v>
+        <v>82</v>
+      </c>
+      <c r="N132" t="s">
+        <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>217</v>
-      </c>
-      <c r="S132" t="s">
-        <v>81</v>
+        <v>362</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>240</v>
+      </c>
+      <c r="T132" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="133">
       <c r="E133" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F133">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G133" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H133" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="I133" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="J133" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="M133" t="s">
-        <v>79</v>
-      </c>
-      <c r="O133" t="s">
-        <v>336</v>
+        <v>82</v>
+      </c>
+      <c r="N133" t="s">
+        <v>82</v>
       </c>
       <c r="P133" t="s">
-        <v>217</v>
-      </c>
-      <c r="S133" t="s">
-        <v>81</v>
+        <v>364</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>240</v>
+      </c>
+      <c r="T133" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="134">
       <c r="E134" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F134">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G134" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H134" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="I134" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="J134" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="M134" t="s">
-        <v>79</v>
-      </c>
-      <c r="O134" t="s">
-        <v>338</v>
+        <v>82</v>
+      </c>
+      <c r="N134" t="s">
+        <v>82</v>
       </c>
       <c r="P134" t="s">
-        <v>217</v>
-      </c>
-      <c r="S134" t="s">
-        <v>81</v>
+        <v>366</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>240</v>
+      </c>
+      <c r="T134" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="135">
       <c r="E135" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F135">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G135" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H135" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="I135" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="J135" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="M135" t="s">
-        <v>79</v>
-      </c>
-      <c r="O135" t="s">
-        <v>340</v>
+        <v>82</v>
+      </c>
+      <c r="N135" t="s">
+        <v>82</v>
       </c>
       <c r="P135" t="s">
-        <v>217</v>
-      </c>
-      <c r="S135" t="s">
-        <v>81</v>
+        <v>368</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>240</v>
+      </c>
+      <c r="T135" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="136">
       <c r="E136" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F136">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G136" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H136" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="I136" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="J136" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="M136" t="s">
-        <v>79</v>
-      </c>
-      <c r="O136" t="s">
-        <v>342</v>
+        <v>82</v>
+      </c>
+      <c r="N136" t="s">
+        <v>82</v>
       </c>
       <c r="P136" t="s">
-        <v>217</v>
-      </c>
-      <c r="S136" t="s">
-        <v>81</v>
+        <v>370</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>240</v>
+      </c>
+      <c r="T136" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="137">
       <c r="E137" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F137">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G137" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H137" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="I137" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="J137" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="M137" t="s">
-        <v>79</v>
-      </c>
-      <c r="O137" t="s">
-        <v>344</v>
+        <v>82</v>
+      </c>
+      <c r="N137" t="s">
+        <v>82</v>
       </c>
       <c r="P137" t="s">
-        <v>217</v>
-      </c>
-      <c r="S137" t="s">
-        <v>81</v>
+        <v>372</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>240</v>
+      </c>
+      <c r="T137" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="138">
       <c r="E138" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F138">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G138" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H138" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="I138" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="J138" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="M138" t="s">
-        <v>79</v>
-      </c>
-      <c r="O138" t="s">
-        <v>346</v>
+        <v>82</v>
+      </c>
+      <c r="N138" t="s">
+        <v>82</v>
       </c>
       <c r="P138" t="s">
-        <v>217</v>
-      </c>
-      <c r="S138" t="s">
-        <v>81</v>
+        <v>374</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>240</v>
+      </c>
+      <c r="T138" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="139">
       <c r="E139" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F139">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G139" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H139" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="I139" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="J139" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="M139" t="s">
-        <v>79</v>
-      </c>
-      <c r="O139" t="s">
-        <v>348</v>
+        <v>82</v>
+      </c>
+      <c r="N139" t="s">
+        <v>82</v>
       </c>
       <c r="P139" t="s">
-        <v>217</v>
-      </c>
-      <c r="S139" t="s">
-        <v>81</v>
+        <v>376</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>240</v>
+      </c>
+      <c r="T139" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="140">
       <c r="E140" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F140">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G140" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H140" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="I140" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="J140" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M140" t="s">
-        <v>79</v>
-      </c>
-      <c r="O140" t="s">
-        <v>190</v>
+        <v>82</v>
+      </c>
+      <c r="N140" t="s">
+        <v>82</v>
       </c>
       <c r="P140" t="s">
-        <v>211</v>
-      </c>
-      <c r="S140" t="s">
-        <v>81</v>
+        <v>378</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>240</v>
+      </c>
+      <c r="T140" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F141">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G141" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H141" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="I141" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="J141" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="M141" t="s">
-        <v>79</v>
-      </c>
-      <c r="O141" t="s">
-        <v>167</v>
+        <v>82</v>
+      </c>
+      <c r="N141" t="s">
+        <v>82</v>
       </c>
       <c r="P141" t="s">
         <v>209</v>
       </c>
-      <c r="S141" t="s">
-        <v>81</v>
+      <c r="Q141" t="s">
+        <v>231</v>
+      </c>
+      <c r="T141" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F142">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G142" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H142" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="I142" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="J142" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="M142" t="s">
-        <v>79</v>
-      </c>
-      <c r="O142" t="s">
-        <v>170</v>
+        <v>82</v>
+      </c>
+      <c r="N142" t="s">
+        <v>82</v>
       </c>
       <c r="P142" t="s">
-        <v>209</v>
-      </c>
-      <c r="S142" t="s">
-        <v>81</v>
+        <v>185</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>228</v>
+      </c>
+      <c r="T142" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F143">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G143" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H143" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="I143" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="J143" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="M143" t="s">
-        <v>79</v>
-      </c>
-      <c r="O143" t="s">
-        <v>190</v>
+        <v>82</v>
+      </c>
+      <c r="N143" t="s">
+        <v>82</v>
       </c>
       <c r="P143" t="s">
-        <v>211</v>
-      </c>
-      <c r="S143" t="s">
-        <v>81</v>
+        <v>189</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>228</v>
+      </c>
+      <c r="T143" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="144">
       <c r="E144" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F144">
         <f>值集数据!$E$12</f>
       </c>
       <c r="G144" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H144" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="I144" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="J144" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="M144" t="s">
-        <v>79</v>
-      </c>
-      <c r="O144" t="s">
-        <v>353</v>
+        <v>82</v>
+      </c>
+      <c r="N144" t="s">
+        <v>82</v>
       </c>
       <c r="P144" t="s">
-        <v>217</v>
-      </c>
-      <c r="S144" t="s">
-        <v>81</v>
+        <v>209</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>231</v>
+      </c>
+      <c r="T144" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="145">
       <c r="E145" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F145">
-        <f>值集数据!$E$13</f>
+        <f>值集数据!$E$12</f>
       </c>
       <c r="G145" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H145" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="I145" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="J145" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="M145" t="s">
-        <v>79</v>
-      </c>
-      <c r="O145" t="s">
-        <v>144</v>
-      </c>
-      <c r="S145" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N145" t="s">
+        <v>82</v>
+      </c>
+      <c r="P145" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>240</v>
+      </c>
+      <c r="T145" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="146">
       <c r="E146" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F146">
         <f>值集数据!$E$13</f>
       </c>
       <c r="G146" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H146" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="I146" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="J146" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="M146" t="s">
-        <v>79</v>
-      </c>
-      <c r="O146" t="s">
-        <v>147</v>
-      </c>
-      <c r="S146" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N146" t="s">
+        <v>82</v>
+      </c>
+      <c r="P146" t="s">
+        <v>156</v>
+      </c>
+      <c r="T146" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="147">
       <c r="E147" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F147">
-        <f>值集数据!$E$14</f>
+        <f>值集数据!$E$13</f>
       </c>
       <c r="G147" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H147" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="I147" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="J147" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="M147" t="s">
-        <v>79</v>
-      </c>
-      <c r="O147" t="s">
-        <v>144</v>
-      </c>
-      <c r="S147" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N147" t="s">
+        <v>82</v>
+      </c>
+      <c r="P147" t="s">
+        <v>160</v>
+      </c>
+      <c r="T147" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="148">
       <c r="E148" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F148">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G148" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H148" t="s">
-        <v>158</v>
+        <v>390</v>
       </c>
       <c r="I148" t="s">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="J148" t="s">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="M148" t="s">
-        <v>79</v>
-      </c>
-      <c r="O148" t="s">
-        <v>147</v>
-      </c>
-      <c r="S148" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N148" t="s">
+        <v>82</v>
+      </c>
+      <c r="P148" t="s">
+        <v>156</v>
+      </c>
+      <c r="T148" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F149">
         <f>值集数据!$E$14</f>
       </c>
       <c r="G149" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H149" t="s">
-        <v>362</v>
+        <v>173</v>
       </c>
       <c r="I149" t="s">
-        <v>363</v>
+        <v>174</v>
       </c>
       <c r="J149" t="s">
-        <v>363</v>
+        <v>175</v>
       </c>
       <c r="M149" t="s">
-        <v>79</v>
-      </c>
-      <c r="O149" t="s">
-        <v>364</v>
-      </c>
-      <c r="S149" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N149" t="s">
+        <v>82</v>
+      </c>
+      <c r="P149" t="s">
+        <v>160</v>
+      </c>
+      <c r="T149" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="150">
       <c r="E150" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F150">
-        <f>值集数据!$E$15</f>
+        <f>值集数据!$E$14</f>
       </c>
       <c r="G150" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H150" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="I150" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="J150" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="M150" t="s">
-        <v>79</v>
-      </c>
-      <c r="O150" t="s">
-        <v>144</v>
-      </c>
-      <c r="S150" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N150" t="s">
+        <v>82</v>
+      </c>
+      <c r="P150" t="s">
+        <v>395</v>
+      </c>
+      <c r="T150" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="151">
       <c r="E151" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F151">
         <f>值集数据!$E$15</f>
       </c>
       <c r="G151" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H151" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="I151" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="J151" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="M151" t="s">
-        <v>79</v>
-      </c>
-      <c r="O151" t="s">
-        <v>147</v>
-      </c>
-      <c r="S151" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N151" t="s">
+        <v>82</v>
+      </c>
+      <c r="P151" t="s">
+        <v>156</v>
+      </c>
+      <c r="T151" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F152">
-        <f>值集数据!$E$18</f>
+        <f>值集数据!$E$15</f>
       </c>
       <c r="G152" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="H152" t="s">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="I152" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="J152" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="M152" t="s">
-        <v>79</v>
-      </c>
-      <c r="O152" t="s">
-        <v>144</v>
-      </c>
-      <c r="S152" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N152" t="s">
+        <v>82</v>
+      </c>
+      <c r="P152" t="s">
+        <v>160</v>
+      </c>
+      <c r="T152" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="153">
       <c r="E153" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F153">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G153" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H153" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I153" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="J153" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="M153" t="s">
-        <v>79</v>
-      </c>
-      <c r="O153" t="s">
-        <v>147</v>
-      </c>
-      <c r="S153" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N153" t="s">
+        <v>82</v>
+      </c>
+      <c r="P153" t="s">
+        <v>156</v>
+      </c>
+      <c r="T153" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="154">
       <c r="E154" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F154">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G154" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H154" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I154" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="J154" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="M154" t="s">
-        <v>79</v>
-      </c>
-      <c r="O154" t="s">
-        <v>150</v>
-      </c>
-      <c r="S154" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N154" t="s">
+        <v>82</v>
+      </c>
+      <c r="P154" t="s">
+        <v>160</v>
+      </c>
+      <c r="T154" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F155">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G155" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H155" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I155" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="J155" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="M155" t="s">
-        <v>79</v>
-      </c>
-      <c r="O155" t="s">
-        <v>153</v>
-      </c>
-      <c r="S155" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N155" t="s">
+        <v>82</v>
+      </c>
+      <c r="P155" t="s">
+        <v>164</v>
+      </c>
+      <c r="T155" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="156">
       <c r="E156" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F156">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G156" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="I156" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="J156" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="M156" t="s">
-        <v>79</v>
-      </c>
-      <c r="O156" t="s">
-        <v>154</v>
-      </c>
-      <c r="S156" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N156" t="s">
+        <v>82</v>
+      </c>
+      <c r="P156" t="s">
+        <v>168</v>
+      </c>
+      <c r="T156" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="157">
       <c r="E157" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F157">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G157" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="I157" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="J157" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="M157" t="s">
-        <v>79</v>
-      </c>
-      <c r="O157" t="s">
-        <v>157</v>
-      </c>
-      <c r="S157" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N157" t="s">
+        <v>82</v>
+      </c>
+      <c r="P157" t="s">
+        <v>169</v>
+      </c>
+      <c r="T157" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F158">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G158" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="I158" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="J158" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="M158" t="s">
-        <v>79</v>
-      </c>
-      <c r="O158" t="s">
-        <v>160</v>
-      </c>
-      <c r="S158" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N158" t="s">
+        <v>82</v>
+      </c>
+      <c r="P158" t="s">
+        <v>172</v>
+      </c>
+      <c r="T158" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F159">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G159" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I159" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="J159" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="M159" t="s">
-        <v>79</v>
-      </c>
-      <c r="O159" t="s">
-        <v>164</v>
-      </c>
-      <c r="S159" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N159" t="s">
+        <v>82</v>
+      </c>
+      <c r="P159" t="s">
+        <v>176</v>
+      </c>
+      <c r="T159" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="160">
       <c r="E160" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F160">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G160" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H160" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="I160" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="J160" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="M160" t="s">
-        <v>79</v>
-      </c>
-      <c r="O160" t="s">
-        <v>170</v>
-      </c>
-      <c r="S160" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N160" t="s">
+        <v>82</v>
+      </c>
+      <c r="P160" t="s">
+        <v>181</v>
+      </c>
+      <c r="T160" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="161">
       <c r="E161" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F161">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G161" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H161" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I161" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="J161" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="M161" t="s">
-        <v>79</v>
-      </c>
-      <c r="O161" t="s">
-        <v>171</v>
-      </c>
-      <c r="S161" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N161" t="s">
+        <v>82</v>
+      </c>
+      <c r="P161" t="s">
+        <v>189</v>
+      </c>
+      <c r="T161" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F162">
         <f>值集数据!$E$18</f>
       </c>
       <c r="G162" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H162" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="I162" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="J162" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="M162" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N162" t="s">
-        <v>387</v>
-      </c>
-      <c r="O162" t="s">
-        <v>167</v>
-      </c>
-      <c r="S162" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="P162" t="s">
+        <v>190</v>
+      </c>
+      <c r="T162" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F163">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G163" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H163" t="s">
-        <v>388</v>
+        <v>156</v>
       </c>
       <c r="I163" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="J163" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="M163" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="N163" t="s">
+        <v>82</v>
       </c>
       <c r="O163" t="s">
-        <v>144</v>
-      </c>
-      <c r="S163" t="s">
-        <v>81</v>
+        <v>419</v>
+      </c>
+      <c r="P163" t="s">
+        <v>185</v>
+      </c>
+      <c r="T163" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F164">
-        <f>值集数据!$E$19</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G164" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H164" t="s">
-        <v>389</v>
+        <v>160</v>
       </c>
       <c r="I164" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="J164" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="M164" t="s">
-        <v>79</v>
-      </c>
-      <c r="O164" t="s">
-        <v>147</v>
-      </c>
-      <c r="S164" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N164" t="s">
+        <v>82</v>
+      </c>
+      <c r="P164" t="s">
+        <v>160</v>
+      </c>
+      <c r="T164" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F165">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G165" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="H165" t="s">
-        <v>390</v>
+        <v>196</v>
       </c>
       <c r="I165" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="J165" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="M165" t="s">
-        <v>79</v>
-      </c>
-      <c r="O165" t="s">
-        <v>144</v>
-      </c>
-      <c r="S165" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N165" t="s">
+        <v>82</v>
+      </c>
+      <c r="P165" t="s">
+        <v>169</v>
+      </c>
+      <c r="T165" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F166">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$18</f>
       </c>
       <c r="G166" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="H166" t="s">
-        <v>392</v>
+        <v>185</v>
       </c>
       <c r="I166" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J166" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M166" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="N166" t="s">
+        <v>82</v>
       </c>
       <c r="O166" t="s">
-        <v>150</v>
-      </c>
-      <c r="S166" t="s">
-        <v>81</v>
+        <v>419</v>
+      </c>
+      <c r="P166" t="s">
+        <v>185</v>
+      </c>
+      <c r="T166" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="167">
       <c r="E167" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F167">
-        <f>值集数据!$E$20</f>
+        <f>值集数据!$E$19</f>
       </c>
       <c r="G167" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H167" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="I167" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="J167" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="M167" t="s">
-        <v>79</v>
-      </c>
-      <c r="O167" t="s">
-        <v>147</v>
-      </c>
-      <c r="S167" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="N167" t="s">
+        <v>82</v>
+      </c>
+      <c r="P167" t="s">
+        <v>156</v>
+      </c>
+      <c r="T167" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="168">
       <c r="E168" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F168">
+        <f>值集数据!$E$19</f>
+      </c>
+      <c r="G168" t="s">
+        <v>132</v>
+      </c>
+      <c r="H168" t="s">
+        <v>425</v>
+      </c>
+      <c r="I168" t="s">
+        <v>425</v>
+      </c>
+      <c r="J168" t="s">
+        <v>425</v>
+      </c>
+      <c r="M168" t="s">
+        <v>82</v>
+      </c>
+      <c r="N168" t="s">
+        <v>82</v>
+      </c>
+      <c r="P168" t="s">
+        <v>160</v>
+      </c>
+      <c r="T168" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="E169" t="s">
+        <v>152</v>
+      </c>
+      <c r="F169">
         <f>值集数据!$E$20</f>
       </c>
-      <c r="G168" t="s">
-        <v>126</v>
-      </c>
-      <c r="H168" t="s">
-        <v>396</v>
-      </c>
-      <c r="I168" t="s">
-        <v>397</v>
-      </c>
-      <c r="J168" t="s">
-        <v>397</v>
-      </c>
-      <c r="M168" t="s">
-        <v>79</v>
-      </c>
-      <c r="O168" t="s">
-        <v>153</v>
-      </c>
-      <c r="S168" t="s">
-        <v>81</v>
+      <c r="G169" t="s">
+        <v>136</v>
+      </c>
+      <c r="H169" t="s">
+        <v>426</v>
+      </c>
+      <c r="I169" t="s">
+        <v>427</v>
+      </c>
+      <c r="J169" t="s">
+        <v>428</v>
+      </c>
+      <c r="M169" t="s">
+        <v>82</v>
+      </c>
+      <c r="N169" t="s">
+        <v>82</v>
+      </c>
+      <c r="P169" t="s">
+        <v>156</v>
+      </c>
+      <c r="T169" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s">
-        <v>50</v>
-      </c>
-      <c r="B170" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" t="s">
-        <v>398</v>
-      </c>
-      <c r="D170" t="s" s="49">
-        <v>399</v>
-      </c>
-      <c r="E170" t="s" s="50">
-        <v>400</v>
-      </c>
-      <c r="F170" t="s" s="51">
-        <v>401</v>
+      <c r="E170" t="s">
+        <v>152</v>
+      </c>
+      <c r="F170">
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G170" t="s">
-        <v>402</v>
+        <v>136</v>
       </c>
       <c r="H170" t="s">
-        <v>403</v>
-      </c>
-      <c r="I170" t="s" s="52">
-        <v>404</v>
-      </c>
-      <c r="J170" t="s" s="53">
-        <v>62</v>
-      </c>
-      <c r="K170" t="s">
-        <v>67</v>
-      </c>
-      <c r="L170" t="s">
-        <v>68</v>
+        <v>429</v>
+      </c>
+      <c r="I170" t="s">
+        <v>430</v>
+      </c>
+      <c r="J170" t="s">
+        <v>431</v>
       </c>
       <c r="M170" t="s">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="N170" t="s">
-        <v>406</v>
-      </c>
-      <c r="O170" t="s">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="P170" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>409</v>
-      </c>
-      <c r="R170" t="s">
-        <v>410</v>
-      </c>
-      <c r="S170" t="s">
-        <v>411</v>
+        <v>164</v>
       </c>
       <c r="T170" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171">
       <c r="E171" t="s">
-        <v>412</v>
-      </c>
-      <c r="F171" t="s">
-        <v>413</v>
+        <v>152</v>
+      </c>
+      <c r="F171">
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G171" t="s">
-        <v>414</v>
+        <v>136</v>
       </c>
       <c r="H171" t="s">
-        <v>415</v>
-      </c>
-      <c r="I171">
-        <f>值集数据!$E$16</f>
+        <v>432</v>
+      </c>
+      <c r="I171" t="s">
+        <v>433</v>
       </c>
       <c r="J171" t="s">
-        <v>79</v>
-      </c>
-      <c r="K171" t="s">
-        <v>112</v>
-      </c>
-      <c r="L171" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>144</v>
-      </c>
-      <c r="R171" t="s">
-        <v>79</v>
+        <v>434</v>
+      </c>
+      <c r="M171" t="s">
+        <v>82</v>
+      </c>
+      <c r="N171" t="s">
+        <v>82</v>
+      </c>
+      <c r="P171" t="s">
+        <v>160</v>
       </c>
       <c r="T171" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172">
       <c r="E172" t="s">
-        <v>416</v>
-      </c>
-      <c r="F172" t="s">
-        <v>106</v>
+        <v>152</v>
+      </c>
+      <c r="F172">
+        <f>值集数据!$E$20</f>
       </c>
       <c r="G172" t="s">
-        <v>414</v>
+        <v>136</v>
       </c>
       <c r="H172" t="s">
-        <v>415</v>
-      </c>
-      <c r="I172">
+        <v>435</v>
+      </c>
+      <c r="I172" t="s">
+        <v>436</v>
+      </c>
+      <c r="J172" t="s">
+        <v>437</v>
+      </c>
+      <c r="M172" t="s">
+        <v>82</v>
+      </c>
+      <c r="N172" t="s">
+        <v>82</v>
+      </c>
+      <c r="P172" t="s">
+        <v>168</v>
+      </c>
+      <c r="T172" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174" t="s">
+        <v>51</v>
+      </c>
+      <c r="C174" t="s">
+        <v>438</v>
+      </c>
+      <c r="D174" t="s" s="51">
+        <v>439</v>
+      </c>
+      <c r="E174" t="s" s="52">
+        <v>440</v>
+      </c>
+      <c r="F174" t="s" s="53">
+        <v>441</v>
+      </c>
+      <c r="G174" t="s">
+        <v>442</v>
+      </c>
+      <c r="H174" t="s">
+        <v>443</v>
+      </c>
+      <c r="I174" t="s" s="54">
+        <v>444</v>
+      </c>
+      <c r="J174" t="s" s="55">
+        <v>62</v>
+      </c>
+      <c r="K174" t="s" s="56">
+        <v>63</v>
+      </c>
+      <c r="L174" t="s">
+        <v>68</v>
+      </c>
+      <c r="M174" t="s">
+        <v>69</v>
+      </c>
+      <c r="N174" t="s">
+        <v>445</v>
+      </c>
+      <c r="O174" t="s">
+        <v>446</v>
+      </c>
+      <c r="P174" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>448</v>
+      </c>
+      <c r="R174" t="s">
+        <v>449</v>
+      </c>
+      <c r="S174" t="s">
+        <v>450</v>
+      </c>
+      <c r="T174" t="s">
+        <v>451</v>
+      </c>
+      <c r="U174" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="E175" t="s">
+        <v>452</v>
+      </c>
+      <c r="F175" t="s">
+        <v>453</v>
+      </c>
+      <c r="G175" t="s">
+        <v>454</v>
+      </c>
+      <c r="H175" t="s">
+        <v>455</v>
+      </c>
+      <c r="I175">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="J172" t="s">
-        <v>79</v>
-      </c>
-      <c r="K172" t="s">
-        <v>112</v>
-      </c>
-      <c r="L172" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>144</v>
-      </c>
-      <c r="R172" t="s">
-        <v>79</v>
-      </c>
-      <c r="T172" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="E173" t="s">
-        <v>417</v>
-      </c>
-      <c r="F173" t="s">
-        <v>115</v>
-      </c>
-      <c r="G173" t="s">
-        <v>418</v>
-      </c>
-      <c r="H173" t="s">
-        <v>418</v>
-      </c>
-      <c r="I173">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="J173" t="s">
-        <v>79</v>
-      </c>
-      <c r="K173" t="s">
-        <v>112</v>
-      </c>
-      <c r="L173" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>144</v>
-      </c>
-      <c r="R173" t="s">
-        <v>79</v>
-      </c>
-      <c r="T173" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>50</v>
-      </c>
-      <c r="B175" t="s">
-        <v>51</v>
-      </c>
-      <c r="C175" t="s">
-        <v>419</v>
-      </c>
-      <c r="D175" t="s" s="54">
-        <v>420</v>
-      </c>
-      <c r="E175" t="s" s="55">
-        <v>421</v>
-      </c>
-      <c r="F175" t="s" s="56">
-        <v>422</v>
-      </c>
-      <c r="G175" t="s">
-        <v>423</v>
-      </c>
-      <c r="H175" t="s" s="57">
-        <v>404</v>
-      </c>
-      <c r="I175" t="s">
-        <v>424</v>
-      </c>
       <c r="J175" t="s">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="K175" t="s">
-        <v>137</v>
-      </c>
-      <c r="L175" t="s" s="58">
-        <v>426</v>
+        <v>82</v>
+      </c>
+      <c r="L175" t="s">
+        <v>120</v>
       </c>
       <c r="M175" t="s">
-        <v>427</v>
-      </c>
-      <c r="N175" t="s">
-        <v>428</v>
-      </c>
-      <c r="O175" t="s">
-        <v>429</v>
-      </c>
-      <c r="P175" t="s">
-        <v>70</v>
+        <v>120</v>
+      </c>
+      <c r="R175" t="s">
+        <v>156</v>
+      </c>
+      <c r="S175" t="s">
+        <v>82</v>
+      </c>
+      <c r="U175" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="176">
       <c r="E176" t="s">
-        <v>430</v>
-      </c>
-      <c r="F176">
-        <f>值集数据!$E$171</f>
+        <v>456</v>
+      </c>
+      <c r="F176" t="s">
+        <v>114</v>
       </c>
       <c r="G176" t="s">
-        <v>79</v>
-      </c>
-      <c r="H176">
+        <v>454</v>
+      </c>
+      <c r="H176" t="s">
+        <v>455</v>
+      </c>
+      <c r="I176">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="I176" t="s">
-        <v>431</v>
-      </c>
       <c r="J176" t="s">
-        <v>431</v>
+        <v>82</v>
       </c>
       <c r="K176" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="L176" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M176" t="s">
-        <v>81</v>
-      </c>
-      <c r="N176" t="s">
-        <v>81</v>
-      </c>
-      <c r="O176" t="s">
-        <v>154</v>
-      </c>
-      <c r="P176" t="s">
-        <v>81</v>
+        <v>120</v>
+      </c>
+      <c r="R176" t="s">
+        <v>156</v>
+      </c>
+      <c r="S176" t="s">
+        <v>82</v>
+      </c>
+      <c r="U176" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="177">
       <c r="E177" t="s">
-        <v>432</v>
-      </c>
-      <c r="F177">
-        <f>值集数据!$E$171</f>
+        <v>457</v>
+      </c>
+      <c r="F177" t="s">
+        <v>123</v>
       </c>
       <c r="G177" t="s">
-        <v>79</v>
-      </c>
-      <c r="H177">
-        <f>值集数据!$E$16</f>
-      </c>
-      <c r="I177" t="s">
-        <v>433</v>
+        <v>458</v>
+      </c>
+      <c r="H177" t="s">
+        <v>459</v>
+      </c>
+      <c r="I177">
+        <f>值集数据!$E$17</f>
       </c>
       <c r="J177" t="s">
-        <v>434</v>
+        <v>82</v>
       </c>
       <c r="K177" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="L177" t="s">
-        <v>434</v>
+        <v>120</v>
       </c>
       <c r="M177" t="s">
-        <v>79</v>
-      </c>
-      <c r="N177" t="s">
-        <v>81</v>
-      </c>
-      <c r="O177" t="s">
-        <v>154</v>
-      </c>
-      <c r="P177" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="E178" t="s">
-        <v>435</v>
-      </c>
-      <c r="F178">
-        <f>值集数据!$E$171</f>
-      </c>
-      <c r="G178" t="s">
-        <v>79</v>
-      </c>
-      <c r="H178">
-        <f>值集数据!$E$16</f>
-      </c>
-      <c r="I178" t="s">
-        <v>436</v>
-      </c>
-      <c r="J178" t="s">
-        <v>436</v>
-      </c>
-      <c r="K178" t="s">
-        <v>144</v>
-      </c>
-      <c r="L178" t="s">
-        <v>437</v>
-      </c>
-      <c r="M178" t="s">
-        <v>79</v>
-      </c>
-      <c r="N178" t="s">
-        <v>81</v>
-      </c>
-      <c r="O178" t="s">
-        <v>154</v>
-      </c>
-      <c r="P178" t="s">
-        <v>81</v>
+        <v>120</v>
+      </c>
+      <c r="R177" t="s">
+        <v>156</v>
+      </c>
+      <c r="S177" t="s">
+        <v>82</v>
+      </c>
+      <c r="U177" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="179">
-      <c r="E179" t="s">
-        <v>438</v>
-      </c>
-      <c r="F179">
-        <f>值集数据!$E$172</f>
+      <c r="A179" t="s">
+        <v>50</v>
+      </c>
+      <c r="B179" t="s">
+        <v>51</v>
+      </c>
+      <c r="C179" t="s">
+        <v>460</v>
+      </c>
+      <c r="D179" t="s" s="57">
+        <v>461</v>
+      </c>
+      <c r="E179" t="s" s="58">
+        <v>462</v>
+      </c>
+      <c r="F179" t="s" s="59">
+        <v>463</v>
       </c>
       <c r="G179" t="s">
-        <v>79</v>
-      </c>
-      <c r="H179">
-        <f>值集数据!$E$16</f>
-      </c>
-      <c r="I179" t="s">
-        <v>431</v>
+        <v>464</v>
+      </c>
+      <c r="H179" t="s">
+        <v>465</v>
+      </c>
+      <c r="I179" t="s" s="60">
+        <v>444</v>
       </c>
       <c r="J179" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="K179" t="s">
-        <v>147</v>
+        <v>467</v>
       </c>
       <c r="L179" t="s">
-        <v>112</v>
-      </c>
-      <c r="M179" t="s">
-        <v>81</v>
+        <v>148</v>
+      </c>
+      <c r="M179" t="s" s="61">
+        <v>468</v>
       </c>
       <c r="N179" t="s">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="O179" t="s">
-        <v>183</v>
+        <v>470</v>
       </c>
       <c r="P179" t="s">
-        <v>81</v>
+        <v>471</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="180">
       <c r="E180" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="F180">
-        <f>值集数据!$E$172</f>
+        <f>值集数据!$E$175</f>
       </c>
       <c r="G180" t="s">
-        <v>79</v>
-      </c>
-      <c r="H180">
+        <v>82</v>
+      </c>
+      <c r="H180" t="s">
+        <v>82</v>
+      </c>
+      <c r="I180">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="I180" t="s">
-        <v>433</v>
-      </c>
       <c r="J180" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="K180" t="s">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="L180" t="s">
-        <v>434</v>
+        <v>160</v>
       </c>
       <c r="M180" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="N180" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O180" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="P180" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="181">
       <c r="E181" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="F181">
-        <f>值集数据!$E$172</f>
+        <f>值集数据!$E$175</f>
       </c>
       <c r="G181" t="s">
-        <v>79</v>
-      </c>
-      <c r="H181">
+        <v>82</v>
+      </c>
+      <c r="H181" t="s">
+        <v>82</v>
+      </c>
+      <c r="I181">
         <f>值集数据!$E$16</f>
       </c>
-      <c r="I181" t="s">
-        <v>441</v>
-      </c>
       <c r="J181" t="s">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="K181" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="L181" t="s">
-        <v>437</v>
+        <v>164</v>
       </c>
       <c r="M181" t="s">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="N181" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O181" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="P181" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="182">
       <c r="E182" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="F182">
-        <f>值集数据!$E$173</f>
+        <f>值集数据!$E$175</f>
       </c>
       <c r="G182" t="s">
-        <v>79</v>
-      </c>
-      <c r="H182">
-        <f>值集数据!$E$17</f>
-      </c>
-      <c r="I182" t="s">
-        <v>431</v>
+        <v>82</v>
+      </c>
+      <c r="H182" t="s">
+        <v>82</v>
+      </c>
+      <c r="I182">
+        <f>值集数据!$E$16</f>
       </c>
       <c r="J182" t="s">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="K182" t="s">
-        <v>144</v>
+        <v>480</v>
       </c>
       <c r="L182" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="M182" t="s">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="N182" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O182" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="F183">
-        <f>值集数据!$E$173</f>
+        <f>值集数据!$E$176</f>
       </c>
       <c r="G183" t="s">
-        <v>79</v>
-      </c>
-      <c r="H183">
+        <v>82</v>
+      </c>
+      <c r="H183" t="s">
+        <v>82</v>
+      </c>
+      <c r="I183">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="J183" t="s">
+        <v>473</v>
+      </c>
+      <c r="K183" t="s">
+        <v>474</v>
+      </c>
+      <c r="L183" t="s">
+        <v>160</v>
+      </c>
+      <c r="M183" t="s">
+        <v>120</v>
+      </c>
+      <c r="N183" t="s">
+        <v>84</v>
+      </c>
+      <c r="O183" t="s">
+        <v>84</v>
+      </c>
+      <c r="P183" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="E184" t="s">
+        <v>483</v>
+      </c>
+      <c r="F184">
+        <f>值集数据!$E$176</f>
+      </c>
+      <c r="G184" t="s">
+        <v>82</v>
+      </c>
+      <c r="H184" t="s">
+        <v>82</v>
+      </c>
+      <c r="I184">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="J184" t="s">
+        <v>476</v>
+      </c>
+      <c r="K184" t="s">
+        <v>477</v>
+      </c>
+      <c r="L184" t="s">
+        <v>164</v>
+      </c>
+      <c r="M184" t="s">
+        <v>477</v>
+      </c>
+      <c r="N184" t="s">
+        <v>82</v>
+      </c>
+      <c r="O184" t="s">
+        <v>84</v>
+      </c>
+      <c r="P184" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="E185" t="s">
+        <v>484</v>
+      </c>
+      <c r="F185">
+        <f>值集数据!$E$176</f>
+      </c>
+      <c r="G185" t="s">
+        <v>82</v>
+      </c>
+      <c r="H185" t="s">
+        <v>82</v>
+      </c>
+      <c r="I185">
+        <f>值集数据!$E$16</f>
+      </c>
+      <c r="J185" t="s">
+        <v>485</v>
+      </c>
+      <c r="K185" t="s">
+        <v>486</v>
+      </c>
+      <c r="L185" t="s">
+        <v>156</v>
+      </c>
+      <c r="M185" t="s">
+        <v>481</v>
+      </c>
+      <c r="N185" t="s">
+        <v>82</v>
+      </c>
+      <c r="O185" t="s">
+        <v>84</v>
+      </c>
+      <c r="P185" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="E186" t="s">
+        <v>487</v>
+      </c>
+      <c r="F186">
+        <f>值集数据!$E$177</f>
+      </c>
+      <c r="G186" t="s">
+        <v>82</v>
+      </c>
+      <c r="H186" t="s">
+        <v>82</v>
+      </c>
+      <c r="I186">
         <f>值集数据!$E$17</f>
       </c>
-      <c r="I183" t="s">
-        <v>433</v>
-      </c>
-      <c r="J183" t="s">
-        <v>79</v>
-      </c>
-      <c r="K183" t="s">
-        <v>147</v>
-      </c>
-      <c r="L183" t="s">
-        <v>434</v>
-      </c>
-      <c r="M183" t="s">
-        <v>79</v>
-      </c>
-      <c r="N183" t="s">
-        <v>81</v>
-      </c>
-      <c r="O183" t="s">
-        <v>183</v>
-      </c>
-      <c r="P183" t="s">
-        <v>81</v>
+      <c r="J186" t="s">
+        <v>473</v>
+      </c>
+      <c r="K186" t="s">
+        <v>474</v>
+      </c>
+      <c r="L186" t="s">
+        <v>156</v>
+      </c>
+      <c r="M186" t="s">
+        <v>120</v>
+      </c>
+      <c r="N186" t="s">
+        <v>84</v>
+      </c>
+      <c r="O186" t="s">
+        <v>84</v>
+      </c>
+      <c r="P186" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="E187" t="s">
+        <v>488</v>
+      </c>
+      <c r="F187">
+        <f>值集数据!$E$177</f>
+      </c>
+      <c r="G187" t="s">
+        <v>82</v>
+      </c>
+      <c r="H187" t="s">
+        <v>82</v>
+      </c>
+      <c r="I187">
+        <f>值集数据!$E$17</f>
+      </c>
+      <c r="J187" t="s">
+        <v>476</v>
+      </c>
+      <c r="K187" t="s">
+        <v>489</v>
+      </c>
+      <c r="L187" t="s">
+        <v>160</v>
+      </c>
+      <c r="M187" t="s">
+        <v>477</v>
+      </c>
+      <c r="N187" t="s">
+        <v>82</v>
+      </c>
+      <c r="O187" t="s">
+        <v>84</v>
+      </c>
+      <c r="P187" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
